--- a/src/test/testData/TestData.xlsx
+++ b/src/test/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srdjan.tanasijevic\IdeaProjects\sCore-Automation\src\test\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E639C83-D76F-47BF-86D6-F97E2A26EC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8EF405-3E4B-4862-85A2-CE6FEE59695F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="290" xr2:uid="{446C2EEA-32A6-4059-8605-697140F2B872}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="171">
   <si>
     <t>TC ID</t>
   </si>
@@ -519,6 +519,39 @@
   </si>
   <si>
     <t>EUR</t>
+  </si>
+  <si>
+    <t>Drzava</t>
+  </si>
+  <si>
+    <t>Metod placanja</t>
+  </si>
+  <si>
+    <t>Dinamika placanja</t>
+  </si>
+  <si>
+    <t>Kvartalno</t>
+  </si>
+  <si>
+    <t>Trajni nalog</t>
+  </si>
+  <si>
+    <t>Administrativna zabrana</t>
+  </si>
+  <si>
+    <t>Nalog za uplatu premije</t>
+  </si>
+  <si>
+    <t>Doživotno</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>BANCA INTESA AD BEOGRAD</t>
+  </si>
+  <si>
+    <t>Riziko</t>
   </si>
 </sst>
 </file>
@@ -981,19 +1014,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A231167-7B41-45C2-955B-DBFB6AABD467}">
-  <dimension ref="A1:AW15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="9" customWidth="1"/>
     <col min="6" max="6" width="11.08984375" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7265625" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.54296875" style="9" bestFit="1" customWidth="1"/>
@@ -1002,52 +1035,13 @@
     <col min="11" max="11" width="6.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.81640625" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.36328125" style="9" customWidth="1"/>
     <col min="15" max="15" width="10.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.453125" style="9" customWidth="1"/>
-    <col min="20" max="20" width="27" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.6328125" style="9" customWidth="1"/>
-    <col min="40" max="40" width="23.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23.453125" style="9" customWidth="1"/>
-    <col min="42" max="42" width="22.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="28.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="34.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="26" style="9" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="32.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18" style="9" customWidth="1"/>
-    <col min="51" max="51" width="20.26953125" style="9" customWidth="1"/>
-    <col min="52" max="65" width="8.7265625" style="9"/>
-    <col min="66" max="66" width="8.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="8.7265625" style="9"/>
-    <col min="69" max="69" width="19.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="17.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="71" max="16384" width="8.7265625" style="9"/>
+    <col min="16" max="16" width="14.54296875" style="9" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1070,13 +1064,13 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>12</v>
@@ -1085,7 +1079,7 @@
         <v>13</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>15</v>
@@ -1096,41 +1090,8 @@
       <c r="P1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-    </row>
-    <row r="2" spans="1:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>70</v>
       </c>
@@ -1150,7 +1111,7 @@
         <v>131</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>148</v>
@@ -1180,7 +1141,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>96</v>
       </c>
@@ -1209,16 +1170,19 @@
         <v>76</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>159</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>79</v>
+        <v>164</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>78</v>
@@ -1227,7 +1191,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>97</v>
       </c>
@@ -1241,7 +1205,7 @@
         <v>73</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>131</v>
@@ -1256,7 +1220,7 @@
         <v>76</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>159</v>
@@ -1265,7 +1229,10 @@
         <v>78</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>79</v>
+        <v>165</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>78</v>
@@ -1274,7 +1241,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>98</v>
       </c>
@@ -1303,16 +1270,19 @@
         <v>76</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>159</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>79</v>
+        <v>166</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>78</v>
@@ -1321,7 +1291,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>132</v>
       </c>
@@ -1361,6 +1331,9 @@
       <c r="M6" s="9" t="s">
         <v>79</v>
       </c>
+      <c r="N6" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="O6" s="9" t="s">
         <v>78</v>
       </c>
@@ -1368,7 +1341,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>133</v>
       </c>
@@ -1397,7 +1370,7 @@
         <v>76</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>159</v>
@@ -1406,7 +1379,10 @@
         <v>78</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>79</v>
+        <v>164</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>78</v>
@@ -1415,7 +1391,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>134</v>
       </c>
@@ -1435,7 +1411,7 @@
         <v>131</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>148</v>
@@ -1444,7 +1420,7 @@
         <v>76</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>159</v>
@@ -1453,7 +1429,10 @@
         <v>78</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>79</v>
+        <v>165</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>78</v>
@@ -1462,7 +1441,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>135</v>
       </c>
@@ -1491,16 +1470,19 @@
         <v>76</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>159</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>79</v>
+        <v>166</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>78</v>
@@ -1509,7 +1491,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>142</v>
       </c>
@@ -1549,6 +1531,9 @@
       <c r="M10" s="9" t="s">
         <v>79</v>
       </c>
+      <c r="N10" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="O10" s="9" t="s">
         <v>78</v>
       </c>
@@ -1556,7 +1541,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>143</v>
       </c>
@@ -1570,7 +1555,7 @@
         <v>73</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>141</v>
@@ -1585,16 +1570,19 @@
         <v>76</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>159</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>79</v>
+        <v>164</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="O11" s="9" t="s">
         <v>78</v>
@@ -1603,7 +1591,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>144</v>
       </c>
@@ -1632,7 +1620,7 @@
         <v>76</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>159</v>
@@ -1641,7 +1629,10 @@
         <v>78</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>79</v>
+        <v>165</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="O12" s="9" t="s">
         <v>78</v>
@@ -1650,7 +1641,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>145</v>
       </c>
@@ -1679,16 +1670,19 @@
         <v>76</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>159</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>79</v>
+        <v>166</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>78</v>
@@ -1697,7 +1691,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>146</v>
       </c>
@@ -1737,6 +1731,9 @@
       <c r="M14" s="9" t="s">
         <v>79</v>
       </c>
+      <c r="N14" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="O14" s="9" t="s">
         <v>78</v>
       </c>
@@ -1744,7 +1741,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>147</v>
       </c>
@@ -1764,7 +1761,7 @@
         <v>141</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>148</v>
@@ -1773,16 +1770,19 @@
         <v>76</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>159</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>79</v>
+        <v>164</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="O15" s="9" t="s">
         <v>78</v>

--- a/src/test/testData/TestData.xlsx
+++ b/src/test/testData/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srdjan.tanasijevic\IdeaProjects\sCore-Automation\src\test\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8EF405-3E4B-4862-85A2-CE6FEE59695F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177EBCC4-25F9-4C39-B75B-8F6501EDFFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="290" xr2:uid="{446C2EEA-32A6-4059-8605-697140F2B872}"/>
   </bookViews>
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1779,7 +1779,7 @@
         <v>83</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N15" s="9" t="s">
         <v>169</v>

--- a/src/test/testData/TestData.xlsx
+++ b/src/test/testData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srdjan.tanasijevic\IdeaProjects\sCore-Automation\src\test\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC71BF39-B4B5-40D6-91EF-6DBD1116BF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205D54C2-03E8-459A-8222-E954841CE7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="523" xr2:uid="{446C2EEA-32A6-4059-8605-697140F2B872}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="523" xr2:uid="{446C2EEA-32A6-4059-8605-697140F2B872}"/>
   </bookViews>
   <sheets>
     <sheet name="RSLife" sheetId="4" r:id="rId1"/>
@@ -1326,7 +1326,7 @@
   <dimension ref="A1:BT15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/src/test/testData/TestData.xlsx
+++ b/src/test/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srdjan.tanasijevic\IdeaProjects\sCore-Automation\src\test\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205D54C2-03E8-459A-8222-E954841CE7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0FA2B9-774E-4F29-8976-6825171E243A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="523" xr2:uid="{446C2EEA-32A6-4059-8605-697140F2B872}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="253">
   <si>
     <t>TC ID</t>
   </si>
@@ -248,9 +248,6 @@
     <t>Bolovanje - Premija</t>
   </si>
   <si>
-    <t>Ukupno</t>
-  </si>
-  <si>
     <t>RS_LI_FA_1001</t>
   </si>
   <si>
@@ -783,6 +780,27 @@
   </si>
   <si>
     <t>20000</t>
+  </si>
+  <si>
+    <t>Izbor dužine trajanja</t>
+  </si>
+  <si>
+    <t>Godine</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>83,88 EUR</t>
+  </si>
+  <si>
+    <t>scoreAgent1</t>
+  </si>
+  <si>
+    <t>1812986870006</t>
   </si>
 </sst>
 </file>
@@ -1323,16 +1341,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78786232-FFE3-4A37-9885-B922DF461FD5}">
-  <dimension ref="A1:BT15"/>
+  <dimension ref="A1:BU15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1796875" style="16" customWidth="1"/>
     <col min="4" max="4" width="7.1796875" style="16" customWidth="1"/>
     <col min="5" max="5" width="13.6328125" style="16" bestFit="1" customWidth="1"/>
@@ -1345,53 +1363,54 @@
     <col min="12" max="12" width="15" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.1796875" style="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.36328125" style="16" customWidth="1"/>
-    <col min="17" max="17" width="28.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.453125" style="18" customWidth="1"/>
-    <col min="20" max="20" width="27" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.08984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27" style="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17" style="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.26953125" style="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.36328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.453125" style="20" customWidth="1"/>
-    <col min="29" max="29" width="10.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.90625" style="20" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.90625" style="20" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.81640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15" style="20" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.36328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.6328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.6328125" style="20" customWidth="1"/>
-    <col min="41" max="41" width="23.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23.453125" style="20" customWidth="1"/>
-    <col min="43" max="43" width="22.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="28.90625" style="20" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="27.81640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="34.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26" style="20" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="32.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.36328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.6328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18" style="22" customWidth="1"/>
-    <col min="52" max="52" width="20.26953125" style="22" customWidth="1"/>
-    <col min="53" max="66" width="8.7265625" style="22"/>
-    <col min="67" max="67" width="8.1796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="8.7265625" style="22"/>
-    <col min="70" max="70" width="19.36328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="17.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="8.7265625" style="22"/>
-    <col min="73" max="16384" width="8.7265625" style="9"/>
+    <col min="15" max="15" width="11.26953125" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.36328125" style="16" customWidth="1"/>
+    <col min="18" max="18" width="28.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.453125" style="18" customWidth="1"/>
+    <col min="21" max="21" width="27" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.08984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17" style="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.453125" style="20" customWidth="1"/>
+    <col min="27" max="27" width="6.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.453125" style="20" customWidth="1"/>
+    <col min="30" max="30" width="10.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.90625" style="20" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.90625" style="20" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11" style="20" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.81640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15" style="20" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.6328125" style="20" customWidth="1"/>
+    <col min="42" max="42" width="23.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.453125" style="20" customWidth="1"/>
+    <col min="44" max="44" width="22.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="28.90625" style="20" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="27.81640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="34.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26" style="20" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="32.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="18" style="22" customWidth="1"/>
+    <col min="53" max="53" width="20.26953125" style="22" customWidth="1"/>
+    <col min="54" max="67" width="8.7265625" style="22"/>
+    <col min="68" max="68" width="8.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="8.7265625" style="22"/>
+    <col min="71" max="71" width="19.36328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12" style="22" customWidth="1"/>
+    <col min="74" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:73" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1427,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>8</v>
@@ -1435,399 +1454,405 @@
         <v>15</v>
       </c>
       <c r="O1" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="T1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="BP1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="BS1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU1" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="T2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="T1" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="17" t="s">
+      <c r="U2" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="W1" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE1" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN1" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP1" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="AR1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="AV1" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AZ1" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA1" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB1" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="BH1" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="BJ1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="BK1" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="BL1" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="BM1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="BN1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="BO1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="BR1" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="BS1" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="BT1" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="X2" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y2" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z2" s="20" t="s">
+      <c r="AA2" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB2" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="AA2" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AC2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF2" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG2" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI2" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK2" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM2" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="AO2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="AQ2" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="AW2" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="AY2" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="AC2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK2" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM2" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN2" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO2" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP2" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS2" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="AT2" s="20" t="s">
+      <c r="AZ2" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="AU2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AX2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AY2" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="AZ2" s="22" t="s">
-        <v>85</v>
-      </c>
       <c r="BA2" s="22" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="BB2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BC2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BD2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BE2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BF2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BG2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BH2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BI2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BJ2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BK2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BL2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BM2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BN2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BO2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BP2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BQ2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BR2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BS2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BT2" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="BU2" s="22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -1837,8 +1862,14 @@
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD3" s="20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1849,7 +1880,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1860,7 +1891,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1871,7 +1902,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1882,7 +1913,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1893,7 +1924,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1904,7 +1935,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1915,7 +1946,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1926,7 +1957,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1937,7 +1968,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -1948,7 +1979,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1959,7 +1990,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1980,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A231167-7B41-45C2-955B-DBFB6AABD467}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:P5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2022,19 +2053,19 @@
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>12</v>
@@ -2043,7 +2074,7 @@
         <v>13</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>15</v>
@@ -2052,707 +2083,707 @@
         <v>17</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="N2" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L6" s="9" t="s">
+      <c r="M6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="N6" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="J9" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L10" s="9" t="s">
+      <c r="M10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="N10" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="E11" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="E12" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="E13" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="9" t="s">
+      <c r="L14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="9" t="s">
+      <c r="M14" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="N14" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="I15" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2883,52 +2914,52 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="Q1" s="10" t="s">
         <v>49</v>
@@ -2936,234 +2967,234 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="I2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="M2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="Q2" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>113</v>
-      </c>
       <c r="H3" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I3" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="K3" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>113</v>
-      </c>
       <c r="H4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="K4" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="C5" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="I5" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="K5" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M5" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="P5" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="O5" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="Q5" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3217,91 +3248,91 @@
   <sheetData>
     <row r="1" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="S1" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="T1" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="U1" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="V1" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="W1" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="X1" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="Y1" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Z1" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="AA1" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AB1" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AC1" s="24" t="s">
         <v>195</v>
-      </c>
-      <c r="AC1" s="24" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3330,122 +3361,122 @@
   <sheetData>
     <row r="1" spans="2:34" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="J1" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="J1" s="23" t="s">
+      <c r="M1" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD1" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG1" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="K1" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="X1" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA1" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB1" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC1" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD1" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="AE1" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AH1" s="23" t="s">
         <v>206</v>
-      </c>
-      <c r="AH1" s="23" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="2:34" x14ac:dyDescent="0.35">
       <c r="E2" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AB2" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.35">
       <c r="E3" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AB3" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3479,37 +3510,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>217</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/testData/TestData.xlsx
+++ b/src/test/testData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srdjan.tanasijevic\IdeaProjects\sCore-Automation\src\test\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0FA2B9-774E-4F29-8976-6825171E243A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017139AC-850B-44A4-A181-29420093CF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="523" xr2:uid="{446C2EEA-32A6-4059-8605-697140F2B872}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="435" xr2:uid="{446C2EEA-32A6-4059-8605-697140F2B872}"/>
   </bookViews>
   <sheets>
     <sheet name="RSLife" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="265">
   <si>
     <t>TC ID</t>
   </si>
@@ -281,18 +281,12 @@
     <t>3</t>
   </si>
   <si>
-    <t>1812986747026</t>
-  </si>
-  <si>
     <t>Ne</t>
   </si>
   <si>
     <t>Osiguranik</t>
   </si>
   <si>
-    <t>0102009710032</t>
-  </si>
-  <si>
     <t>Premija</t>
   </si>
   <si>
@@ -308,9 +302,6 @@
     <t>500</t>
   </si>
   <si>
-    <t>1.770,03</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -758,12 +749,6 @@
     <t>8.1.15. Platilac je medijski eksponirana ličnost?</t>
   </si>
   <si>
-    <t>ne</t>
-  </si>
-  <si>
-    <t>da</t>
-  </si>
-  <si>
     <t>8.1.15.1. Navedite na koji način je medijski eksponiran</t>
   </si>
   <si>
@@ -779,9 +764,6 @@
     <t>Ugovarač/Osiguranik imaju zakonskog zastupnika</t>
   </si>
   <si>
-    <t>20000</t>
-  </si>
-  <si>
     <t>Izbor dužine trajanja</t>
   </si>
   <si>
@@ -794,13 +776,67 @@
     <t>false</t>
   </si>
   <si>
-    <t>83,88 EUR</t>
-  </si>
-  <si>
     <t>scoreAgent1</t>
   </si>
   <si>
-    <t>1812986870006</t>
+    <t>RS_LI_FA_100</t>
+  </si>
+  <si>
+    <t>Vinkulacija</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Štednja</t>
+  </si>
+  <si>
+    <t>Zaposlen</t>
+  </si>
+  <si>
+    <t>Stalni izvori (plata, porodična primanja, penzija ili nešto treće)</t>
+  </si>
+  <si>
+    <t>Redovna zarada</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Tahiti</t>
+  </si>
+  <si>
+    <t>Niža od 2500 €</t>
+  </si>
+  <si>
+    <t>AML rangovi</t>
+  </si>
+  <si>
+    <t>Zdravstveni uptnik</t>
+  </si>
+  <si>
+    <t>Izjava</t>
+  </si>
+  <si>
+    <t>7,15 EUR</t>
+  </si>
+  <si>
+    <t>RS_LI_RK_100</t>
+  </si>
+  <si>
+    <t>1810981745049</t>
   </si>
 </sst>
 </file>
@@ -948,7 +984,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1021,6 +1057,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1341,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78786232-FFE3-4A37-9885-B922DF461FD5}">
-  <dimension ref="A1:BU15"/>
+  <dimension ref="A1:BW9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1365,52 +1413,53 @@
     <col min="14" max="14" width="6" style="16" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.26953125" style="16" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.36328125" style="16" customWidth="1"/>
-    <col min="18" max="18" width="28.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.453125" style="18" customWidth="1"/>
-    <col min="21" max="21" width="27" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.08984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27" style="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17" style="18" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.453125" style="20" customWidth="1"/>
-    <col min="27" max="27" width="6.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.36328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.453125" style="20" customWidth="1"/>
-    <col min="30" max="30" width="10.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.90625" style="20" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.90625" style="20" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.81640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15" style="20" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.36328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.6328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.6328125" style="20" customWidth="1"/>
-    <col min="42" max="42" width="23.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="23.453125" style="20" customWidth="1"/>
-    <col min="44" max="44" width="22.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="28.90625" style="20" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="27.81640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="34.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26" style="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="32.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.36328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.6328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="18" style="22" customWidth="1"/>
-    <col min="53" max="53" width="20.26953125" style="22" customWidth="1"/>
-    <col min="54" max="67" width="8.7265625" style="22"/>
-    <col min="68" max="68" width="8.1796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="8.7265625" style="22"/>
-    <col min="71" max="71" width="19.36328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12" style="22" customWidth="1"/>
-    <col min="74" max="16384" width="8.7265625" style="9"/>
+    <col min="17" max="18" width="10.36328125" style="16" customWidth="1"/>
+    <col min="19" max="19" width="28.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.453125" style="18" customWidth="1"/>
+    <col min="22" max="22" width="27" style="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.08984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27" style="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.453125" style="20" customWidth="1"/>
+    <col min="28" max="28" width="6.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.453125" style="20" customWidth="1"/>
+    <col min="31" max="31" width="10.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.90625" style="20" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.90625" style="20" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11" style="20" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.81640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15" style="20" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.6328125" style="20" customWidth="1"/>
+    <col min="43" max="43" width="23.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.453125" style="20" customWidth="1"/>
+    <col min="45" max="45" width="22.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="28.90625" style="20" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.81640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="34.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="26" style="20" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="32.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.453125" style="20" customWidth="1"/>
+    <col min="54" max="54" width="18" style="22" customWidth="1"/>
+    <col min="55" max="55" width="20.26953125" style="22" customWidth="1"/>
+    <col min="56" max="69" width="8.7265625" style="22"/>
+    <col min="70" max="70" width="8.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="8.7265625" style="22"/>
+    <col min="73" max="73" width="19.36328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="17.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12" style="22" customWidth="1"/>
+    <col min="76" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:75" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1476,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>8</v>
@@ -1454,7 +1503,7 @@
         <v>15</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>17</v>
@@ -1462,397 +1511,409 @@
       <c r="Q1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="S1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="U1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="BB1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="BM1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="BQ1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="BR1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="BS1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="BT1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="BU1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="BV1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="BW1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="U1" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="X1" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF1" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO1" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ1" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW1" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="BA1" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="BC1" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="BI1" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="BJ1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="BK1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="BL1" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="BO1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="BP1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="BQ1" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="BS1" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="BT1" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="BU1" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:75" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>68</v>
+        <v>263</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>71</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>73</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O2" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB2" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="P2" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="18" t="s">
+      <c r="AC2" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="S2" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y2" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z2" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA2" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB2" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC2" s="20" t="s">
-        <v>86</v>
-      </c>
       <c r="AD2" s="20" t="s">
-        <v>89</v>
+        <v>249</v>
       </c>
       <c r="AE2" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AF2" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AG2" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AH2" s="20" t="s">
-        <v>248</v>
+        <v>86</v>
       </c>
       <c r="AI2" s="20" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="AJ2" s="20" t="s">
-        <v>248</v>
+        <v>86</v>
       </c>
       <c r="AK2" s="20" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="AL2" s="20" t="s">
-        <v>248</v>
+        <v>86</v>
       </c>
       <c r="AM2" s="20" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="AN2" s="20" t="s">
-        <v>248</v>
+        <v>86</v>
       </c>
       <c r="AO2" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AP2" s="20" t="s">
-        <v>248</v>
+        <v>86</v>
       </c>
       <c r="AQ2" s="20" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="AR2" s="20" t="s">
-        <v>248</v>
+        <v>86</v>
       </c>
       <c r="AS2" s="20" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="AT2" s="20" t="s">
-        <v>248</v>
+        <v>86</v>
       </c>
       <c r="AU2" s="20" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="AV2" s="20" t="s">
-        <v>248</v>
+        <v>86</v>
       </c>
       <c r="AW2" s="20" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="AX2" s="20" t="s">
-        <v>248</v>
+        <v>86</v>
       </c>
       <c r="AY2" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ2" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="BA2" s="22" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="AZ2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA2" s="20" t="s">
+        <v>261</v>
       </c>
       <c r="BB2" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BC2" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BD2" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BE2" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BF2" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BG2" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BH2" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BI2" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BJ2" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BK2" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BL2" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BM2" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BN2" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BO2" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BP2" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BQ2" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BR2" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BS2" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BT2" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BU2" s="22" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="BV2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW2" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:75" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -1862,14 +1923,8 @@
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
-      <c r="S3" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD3" s="20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:75" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1880,7 +1935,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:75" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1891,7 +1946,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:75" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1902,7 +1957,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:75" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1913,7 +1968,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:75" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1924,7 +1979,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:75" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1935,73 +1990,8 @@
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:73" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2053,19 +2043,19 @@
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>12</v>
@@ -2074,7 +2064,7 @@
         <v>13</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>15</v>
@@ -2103,13 +2093,13 @@
         <v>72</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>73</v>
@@ -2118,7 +2108,7 @@
         <v>74</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>75</v>
@@ -2127,7 +2117,7 @@
         <v>76</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>75</v>
@@ -2138,7 +2128,7 @@
     </row>
     <row r="3" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>69</v>
@@ -2150,34 +2140,34 @@
         <v>71</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>73</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>75</v>
@@ -2188,7 +2178,7 @@
     </row>
     <row r="4" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>69</v>
@@ -2200,34 +2190,34 @@
         <v>71</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>73</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>75</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>75</v>
@@ -2238,7 +2228,7 @@
     </row>
     <row r="5" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>69</v>
@@ -2250,34 +2240,34 @@
         <v>71</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>73</v>
       </c>
       <c r="J5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="N5" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>75</v>
@@ -2288,7 +2278,7 @@
     </row>
     <row r="6" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>69</v>
@@ -2300,16 +2290,16 @@
         <v>71</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>73</v>
@@ -2318,7 +2308,7 @@
         <v>74</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>75</v>
@@ -2327,7 +2317,7 @@
         <v>76</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>75</v>
@@ -2338,7 +2328,7 @@
     </row>
     <row r="7" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>69</v>
@@ -2350,34 +2340,34 @@
         <v>71</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>73</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>75</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>75</v>
@@ -2388,7 +2378,7 @@
     </row>
     <row r="8" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>69</v>
@@ -2400,34 +2390,34 @@
         <v>71</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>73</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>75</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>75</v>
@@ -2438,7 +2428,7 @@
     </row>
     <row r="9" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>69</v>
@@ -2453,31 +2443,31 @@
         <v>72</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>73</v>
       </c>
       <c r="J9" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="N9" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>75</v>
@@ -2488,7 +2478,7 @@
     </row>
     <row r="10" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>69</v>
@@ -2500,16 +2490,16 @@
         <v>71</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>73</v>
@@ -2518,7 +2508,7 @@
         <v>74</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>75</v>
@@ -2527,7 +2517,7 @@
         <v>76</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O10" s="9" t="s">
         <v>75</v>
@@ -2538,7 +2528,7 @@
     </row>
     <row r="11" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>69</v>
@@ -2550,34 +2540,34 @@
         <v>71</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>73</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O11" s="9" t="s">
         <v>75</v>
@@ -2588,7 +2578,7 @@
     </row>
     <row r="12" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>69</v>
@@ -2600,34 +2590,34 @@
         <v>71</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>73</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>75</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O12" s="9" t="s">
         <v>75</v>
@@ -2638,7 +2628,7 @@
     </row>
     <row r="13" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>69</v>
@@ -2650,34 +2640,34 @@
         <v>71</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>138</v>
-      </c>
       <c r="G13" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>73</v>
       </c>
       <c r="J13" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="N13" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>75</v>
@@ -2688,7 +2678,7 @@
     </row>
     <row r="14" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>69</v>
@@ -2700,16 +2690,16 @@
         <v>71</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>73</v>
@@ -2718,7 +2708,7 @@
         <v>74</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>75</v>
@@ -2727,7 +2717,7 @@
         <v>76</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O14" s="9" t="s">
         <v>75</v>
@@ -2738,7 +2728,7 @@
     </row>
     <row r="15" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>69</v>
@@ -2750,34 +2740,34 @@
         <v>71</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>73</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O15" s="9" t="s">
         <v>75</v>
@@ -2804,68 +2794,68 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:49" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="25"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
       <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25" t="s">
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
       <c r="AW1" s="1" t="s">
         <v>51</v>
       </c>
@@ -2914,52 +2904,52 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="Q1" s="10" t="s">
         <v>49</v>
@@ -2970,169 +2960,169 @@
         <v>68</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="J2" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>96</v>
-      </c>
       <c r="C3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="K3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="K3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="Q3" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>99</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="O4" s="11" t="s">
+      <c r="P4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>74</v>
@@ -3141,60 +3131,60 @@
         <v>75</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="L5" s="11" t="s">
+      <c r="M5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>122</v>
-      </c>
       <c r="P5" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3248,91 +3238,91 @@
   <sheetData>
     <row r="1" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="S1" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="T1" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="U1" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="V1" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="W1" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="X1" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="Y1" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="Z1" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="AA1" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="AB1" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="AC1" s="24" t="s">
         <v>192</v>
-      </c>
-      <c r="AA1" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB1" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC1" s="24" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3342,205 +3332,342 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC0C6BA-7019-4DDD-99C2-5B9398F19638}">
-  <dimension ref="B1:AH3"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="23"/>
-    <col min="2" max="9" width="18" style="23" customWidth="1"/>
-    <col min="10" max="10" width="43.6328125" style="23" customWidth="1"/>
-    <col min="11" max="27" width="18" style="23" customWidth="1"/>
-    <col min="28" max="28" width="36.6328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="29" max="46" width="18" style="23" customWidth="1"/>
-    <col min="47" max="16384" width="8.7265625" style="23"/>
+    <col min="1" max="1" width="13.54296875" style="26" customWidth="1"/>
+    <col min="2" max="3" width="18" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="18" style="26" customWidth="1"/>
+    <col min="10" max="10" width="43.6328125" style="26" customWidth="1"/>
+    <col min="11" max="27" width="18" style="26" customWidth="1"/>
+    <col min="28" max="28" width="36.6328125" style="26" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="18" style="26" customWidth="1"/>
+    <col min="32" max="32" width="18" style="5" customWidth="1"/>
+    <col min="33" max="33" width="18" style="26" customWidth="1"/>
+    <col min="34" max="44" width="18" style="25" customWidth="1"/>
+    <col min="45" max="16384" width="8.7265625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:33" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="F1" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="H1" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="J1" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="L1" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="H1" s="23" t="s">
+      <c r="N1" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="O1" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="X1" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA1" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB1" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD1" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE1" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="K1" s="23" t="s">
+      <c r="AG1" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="L1" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="X1" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA1" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB1" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC1" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="AD1" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE1" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG1" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH1" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="E2" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB2" s="23" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="E3" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB3" s="23" t="s">
-        <v>239</v>
+    </row>
+    <row r="2" spans="1:33" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG2" s="26" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3478E0C7-5B2C-4C21-9F9E-5E498D4C7A77}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" style="23"/>
-    <col min="4" max="4" width="14" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.7265625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" style="23" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" style="23" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="23" customWidth="1"/>
-    <col min="12" max="16384" width="22.6328125" style="23"/>
+    <col min="1" max="1" width="22.6328125" style="27"/>
+    <col min="2" max="2" width="15.08984375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" style="28"/>
+    <col min="5" max="5" width="14" style="28" customWidth="1"/>
+    <col min="6" max="6" width="27.7265625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="17.7265625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" style="27" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="22.6328125" style="27"/>
+    <col min="14" max="16384" width="22.6328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="F1" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="G1" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="H1" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="I1" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="J1" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="K1" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="L1" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>217</v>
+      <c r="M1" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="M2" s="27">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/testData/TestData.xlsx
+++ b/src/test/testData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srdjan.tanasijevic\IdeaProjects\sCore-Automation\src\test\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017139AC-850B-44A4-A181-29420093CF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927D0162-D074-41D3-A604-97409059E8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="435" xr2:uid="{446C2EEA-32A6-4059-8605-697140F2B872}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="560" firstSheet="1" activeTab="6" xr2:uid="{446C2EEA-32A6-4059-8605-697140F2B872}"/>
   </bookViews>
   <sheets>
     <sheet name="RSLife" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="290">
   <si>
     <t>TC ID</t>
   </si>
@@ -779,9 +779,6 @@
     <t>scoreAgent1</t>
   </si>
   <si>
-    <t>RS_LI_FA_100</t>
-  </si>
-  <si>
     <t>Vinkulacija</t>
   </si>
   <si>
@@ -837,13 +834,91 @@
   </si>
   <si>
     <t>1810981745049</t>
+  </si>
+  <si>
+    <t>R.br</t>
+  </si>
+  <si>
+    <t>AML1</t>
+  </si>
+  <si>
+    <t>AML2</t>
+  </si>
+  <si>
+    <t>AML3</t>
+  </si>
+  <si>
+    <t>AML4</t>
+  </si>
+  <si>
+    <t>AML5</t>
+  </si>
+  <si>
+    <t>Porodična primanja</t>
+  </si>
+  <si>
+    <t>Isplata osigurane sume sa druge polise</t>
+  </si>
+  <si>
+    <t>Testament</t>
+  </si>
+  <si>
+    <t>Dugogodišnja ušteđevina</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>AML</t>
+  </si>
+  <si>
+    <t>AML-S1</t>
+  </si>
+  <si>
+    <t>AML-S2</t>
+  </si>
+  <si>
+    <t>AML-S3</t>
+  </si>
+  <si>
+    <t>AML-S4</t>
+  </si>
+  <si>
+    <t>AML-S5</t>
+  </si>
+  <si>
+    <t>Socijalna sigurnost</t>
+  </si>
+  <si>
+    <t>Sigurnost porodice</t>
+  </si>
+  <si>
+    <t>Ostalo</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Nezaposlen</t>
+  </si>
+  <si>
+    <t>Penzioner</t>
+  </si>
+  <si>
+    <t>Drugi prihodi</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>AML - saradnik</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -921,6 +996,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -970,12 +1061,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -984,7 +1090,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1068,6 +1174,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1389,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78786232-FFE3-4A37-9885-B922DF461FD5}">
-  <dimension ref="A1:BW9"/>
+  <dimension ref="A1:BY9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BY1" sqref="BY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1459,7 +1577,7 @@
     <col min="76" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:77" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1630,7 @@
         <v>77</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S1" s="17" t="s">
         <v>19</v>
@@ -1617,7 +1735,7 @@
         <v>50</v>
       </c>
       <c r="BA1" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BB1" s="21" t="s">
         <v>39</v>
@@ -1685,10 +1803,16 @@
       <c r="BW1" s="21" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:75" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BX1" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:77" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>69</v>
@@ -1745,7 +1869,7 @@
         <v>242</v>
       </c>
       <c r="T2" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U2" s="18" t="s">
         <v>86</v>
@@ -1766,17 +1890,17 @@
         <v>97</v>
       </c>
       <c r="AA2" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AB2" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC2" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AD2" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="AD2" s="20" t="s">
-        <v>249</v>
-      </c>
       <c r="AE2" s="20" t="s">
         <v>86</v>
       </c>
@@ -1844,76 +1968,82 @@
         <v>86</v>
       </c>
       <c r="BA2" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="BB2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW2" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="BB2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BC2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BD2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BE2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BG2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BJ2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BK2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BL2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BM2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BN2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BO2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BP2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BQ2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BR2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BS2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BT2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BU2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BV2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BW2" s="22" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:75" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BX2" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="BY2" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:77" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -1924,7 +2054,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:75" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:77" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1935,7 +2065,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:75" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:77" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1946,7 +2076,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:75" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:77" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1957,7 +2087,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:75" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:77" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1968,7 +2098,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:75" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:77" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1979,7 +2109,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:75" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:77" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -2794,68 +2924,68 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:49" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29" t="s">
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29" t="s">
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="29"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
       <c r="AW1" s="1" t="s">
         <v>51</v>
       </c>
@@ -3332,10 +3462,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC0C6BA-7019-4DDD-99C2-5B9398F19638}">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3354,220 +3484,1212 @@
     <col min="45" max="16384" width="8.7265625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:33" s="4" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="V1" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="W1" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="X1" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y1" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z1" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA1" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB1" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC1" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD1" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE1" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF1" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG1" s="31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE2" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF2" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG2" s="29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="U1" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="W1" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="X1" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y1" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z1" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA1" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB1" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC1" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="AD1" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="AE1" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG1" s="26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C3" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D3" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="T3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="V3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="X3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF3" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG3" s="29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E2" s="26" t="s">
+      <c r="E4" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="U4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="V4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="W4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="X4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF4" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG4" s="29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="G2" s="26" t="s">
+      <c r="F5" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="T5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="V5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="X5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF5" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG5" s="29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="H2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="T2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="U2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="V2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="W2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="X2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="AG2" s="26" t="s">
-        <v>256</v>
-      </c>
+      <c r="F6" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="T6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="U6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="V6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="W6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF6" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG6" s="29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="29"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="29"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="29"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="29"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="29"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="29"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="29"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="29"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="29"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="29"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="29"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="29"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="29"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="29"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="29"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="29"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3478E0C7-5B2C-4C21-9F9E-5E498D4C7A77}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3584,13 +4706,13 @@
     <col min="10" max="10" width="12.81640625" style="27" customWidth="1"/>
     <col min="11" max="11" width="13.1796875" style="27" customWidth="1"/>
     <col min="12" max="12" width="13.7265625" style="27" customWidth="1"/>
-    <col min="13" max="13" width="22.6328125" style="27"/>
+    <col min="13" max="13" width="11.1796875" style="26" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="22.6328125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>204</v>
@@ -3625,52 +4747,238 @@
       <c r="L1" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="M1" s="27" t="s">
-        <v>259</v>
+      <c r="M1" s="26" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>256</v>
-      </c>
       <c r="D2" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="M2" s="27">
-        <v>0</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="26"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="26"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="26"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="26"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="26"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="26"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="26"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/testData/TestData.xlsx
+++ b/src/test/testData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srdjan.tanasijevic\IdeaProjects\sCore-Automation\src\test\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rss0105\IdeaProjects\DemoProject\sCore-Automation\src\test\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205D54C2-03E8-459A-8222-E954841CE7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A51B95-DD9D-47AE-8113-C7374EA7AE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="523" xr2:uid="{446C2EEA-32A6-4059-8605-697140F2B872}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="523" xr2:uid="{446C2EEA-32A6-4059-8605-697140F2B872}"/>
   </bookViews>
   <sheets>
     <sheet name="RSLife" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="251">
   <si>
     <t>TC ID</t>
   </si>
@@ -783,6 +783,18 @@
   </si>
   <si>
     <t>20000</t>
+  </si>
+  <si>
+    <t>Beograd (Savski Venac)</t>
+  </si>
+  <si>
+    <t>Tačno mesto</t>
+  </si>
+  <si>
+    <t>Izbor dužine trajanja</t>
+  </si>
+  <si>
+    <t>Godine</t>
   </si>
 </sst>
 </file>
@@ -1323,75 +1335,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78786232-FFE3-4A37-9885-B922DF461FD5}">
-  <dimension ref="A1:BT15"/>
+  <dimension ref="A1:BV15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.54296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.90625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.36328125" style="16" customWidth="1"/>
-    <col min="17" max="17" width="28.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.453125" style="18" customWidth="1"/>
-    <col min="20" max="20" width="27" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.08984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" style="16" customWidth="1"/>
+    <col min="19" max="19" width="28.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.44140625" style="18" customWidth="1"/>
     <col min="22" max="22" width="27" style="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17" style="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.26953125" style="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.36328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.453125" style="20" customWidth="1"/>
-    <col min="29" max="29" width="10.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.90625" style="20" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.90625" style="20" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.81640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15" style="20" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.36328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.6328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.6328125" style="20" customWidth="1"/>
-    <col min="41" max="41" width="23.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23.453125" style="20" customWidth="1"/>
-    <col min="43" max="43" width="22.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="28.90625" style="20" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="27.81640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="34.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26" style="20" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="32.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.36328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.6328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18" style="22" customWidth="1"/>
-    <col min="52" max="52" width="20.26953125" style="22" customWidth="1"/>
-    <col min="53" max="66" width="8.7265625" style="22"/>
-    <col min="67" max="67" width="8.1796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="8.7265625" style="22"/>
-    <col min="70" max="70" width="19.36328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="17.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="8.7265625" style="22"/>
-    <col min="73" max="16384" width="8.7265625" style="9"/>
+    <col min="23" max="23" width="7.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27" style="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.44140625" style="20" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11" style="20" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15" style="20" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.6640625" style="20" customWidth="1"/>
+    <col min="43" max="43" width="23.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.44140625" style="20" customWidth="1"/>
+    <col min="45" max="45" width="22.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="28.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="34.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="26" style="20" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="32.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18" style="22" customWidth="1"/>
+    <col min="54" max="54" width="20.21875" style="22" customWidth="1"/>
+    <col min="55" max="68" width="8.77734375" style="22"/>
+    <col min="69" max="69" width="8.21875" style="22" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="8.77734375" style="22"/>
+    <col min="72" max="72" width="19.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="17.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.77734375" style="22"/>
+    <col min="75" max="16384" width="8.77734375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:74" s="4" customFormat="1" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1420,196 +1434,202 @@
         <v>10</v>
       </c>
       <c r="J1" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="V1" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="X1" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="Y1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="Z1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="AA1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AB1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AD1" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AF1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AG1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AH1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AI1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AK1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="19" t="s">
+      <c r="AL1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="19" t="s">
+      <c r="AM1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="19" t="s">
+      <c r="AN1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AM1" s="19" t="s">
+      <c r="AO1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" s="19" t="s">
+      <c r="AP1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AO1" s="19" t="s">
+      <c r="AQ1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AP1" s="19" t="s">
+      <c r="AR1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AQ1" s="19" t="s">
+      <c r="AS1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AR1" s="19" t="s">
+      <c r="AT1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="19" t="s">
+      <c r="AU1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AT1" s="19" t="s">
+      <c r="AV1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AU1" s="19" t="s">
+      <c r="AW1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AV1" s="19" t="s">
+      <c r="AX1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AW1" s="19" t="s">
+      <c r="AY1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AX1" s="19" t="s">
+      <c r="AZ1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="AY1" s="21" t="s">
+      <c r="BA1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AZ1" s="21" t="s">
+      <c r="BB1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="BA1" s="21" t="s">
+      <c r="BC1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="BB1" s="21" t="s">
+      <c r="BD1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="21" t="s">
+      <c r="BE1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="21" t="s">
+      <c r="BF1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="21" t="s">
+      <c r="BG1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="21" t="s">
+      <c r="BH1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="21" t="s">
+      <c r="BI1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BH1" s="21" t="s">
+      <c r="BJ1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="21" t="s">
+      <c r="BK1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="BJ1" s="21" t="s">
+      <c r="BL1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" s="21" t="s">
+      <c r="BM1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="BL1" s="21" t="s">
+      <c r="BN1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="BM1" s="21" t="s">
+      <c r="BO1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="BN1" s="21" t="s">
+      <c r="BP1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="BO1" s="21" t="s">
+      <c r="BQ1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="21" t="s">
+      <c r="BR1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="21" t="s">
+      <c r="BS1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="BR1" s="21" t="s">
+      <c r="BT1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" s="21" t="s">
+      <c r="BU1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="BT1" s="21" t="s">
+      <c r="BV1" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:74" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -1637,69 +1657,69 @@
       <c r="I2" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="N2" s="16" t="s">
-        <v>90</v>
-      </c>
       <c r="O2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q2" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="R2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="S2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="T2" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="U2" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>90</v>
-      </c>
       <c r="W2" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z2" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="AA2" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="AB2" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AC2" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AD2" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="AC2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>90</v>
-      </c>
       <c r="AE2" s="20" t="s">
         <v>90</v>
       </c>
@@ -1719,59 +1739,59 @@
         <v>90</v>
       </c>
       <c r="AK2" s="20" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="20" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="20" t="s">
         <v>76</v>
       </c>
       <c r="AN2" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO2" s="20" t="s">
         <v>76</v>
       </c>
       <c r="AP2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR2" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="AQ2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR2" s="20" t="s">
-        <v>90</v>
-      </c>
       <c r="AS2" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT2" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU2" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="AT2" s="20" t="s">
+      <c r="AV2" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AU2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV2" s="20" t="s">
-        <v>90</v>
-      </c>
       <c r="AW2" s="20" t="s">
         <v>90</v>
       </c>
       <c r="AX2" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="AY2" s="22" t="s">
+      <c r="AY2" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ2" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA2" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="AZ2" s="22" t="s">
+      <c r="BB2" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="BA2" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="BB2" s="22" t="s">
-        <v>90</v>
-      </c>
       <c r="BC2" s="22" t="s">
         <v>90</v>
       </c>
@@ -1824,10 +1844,16 @@
         <v>90</v>
       </c>
       <c r="BT2" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="BU2" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV2" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:74" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -1837,8 +1863,9 @@
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:74" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1848,8 +1875,9 @@
       <c r="G4" s="13"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:74" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1859,8 +1887,9 @@
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:74" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1870,8 +1899,9 @@
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
       <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:74" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1881,8 +1911,9 @@
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:74" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1892,8 +1923,9 @@
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:74" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1903,8 +1935,9 @@
       <c r="G9" s="13"/>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:74" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1914,8 +1947,9 @@
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:74" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1925,8 +1959,9 @@
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:74" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1936,8 +1971,9 @@
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
       <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:74" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -1947,8 +1983,9 @@
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
       <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:74" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1958,8 +1995,9 @@
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
       <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:72" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:74" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1969,6 +2007,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
       <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1984,28 +2023,28 @@
       <selection activeCell="B5" sqref="B5:P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.36328125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.54296875" style="9" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="9"/>
+    <col min="14" max="14" width="35.33203125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5546875" style="9" customWidth="1"/>
+    <col min="17" max="16384" width="8.77734375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2055,7 +2094,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -2105,7 +2144,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>94</v>
       </c>
@@ -2155,7 +2194,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>95</v>
       </c>
@@ -2205,7 +2244,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>96</v>
       </c>
@@ -2255,7 +2294,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>130</v>
       </c>
@@ -2305,7 +2344,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>131</v>
       </c>
@@ -2355,7 +2394,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>132</v>
       </c>
@@ -2405,7 +2444,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>133</v>
       </c>
@@ -2455,7 +2494,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>140</v>
       </c>
@@ -2505,7 +2544,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>141</v>
       </c>
@@ -2555,7 +2594,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>142</v>
       </c>
@@ -2605,7 +2644,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>143</v>
       </c>
@@ -2655,7 +2694,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>144</v>
       </c>
@@ -2705,7 +2744,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>145</v>
       </c>
@@ -2770,9 +2809,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:49" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:49" s="1" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="25" t="s">
         <v>6</v>
       </c>
@@ -2859,29 +2898,29 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7265625" style="11"/>
+    <col min="17" max="17" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>91</v>
       </c>
@@ -2934,7 +2973,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>69</v>
       </c>
@@ -2987,7 +3026,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>94</v>
       </c>
@@ -3040,7 +3079,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>95</v>
       </c>
@@ -3093,7 +3132,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>96</v>
       </c>
@@ -3146,22 +3185,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>127</v>
       </c>
@@ -3181,41 +3220,41 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="46.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" style="24" customWidth="1"/>
     <col min="6" max="6" width="17" style="24" customWidth="1"/>
-    <col min="7" max="7" width="24.08984375" style="24" customWidth="1"/>
-    <col min="8" max="8" width="31.6328125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="46.36328125" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.90625" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.1796875" style="24" customWidth="1"/>
-    <col min="12" max="12" width="28.36328125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="24.453125" style="24" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" style="24" customWidth="1"/>
-    <col min="15" max="15" width="23.90625" style="24" customWidth="1"/>
-    <col min="16" max="16" width="25.453125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="46.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.21875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="24.44140625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="23.88671875" style="24" customWidth="1"/>
+    <col min="16" max="16" width="25.44140625" style="24" customWidth="1"/>
     <col min="17" max="17" width="26" style="24" customWidth="1"/>
-    <col min="18" max="18" width="31.1796875" style="24" customWidth="1"/>
-    <col min="19" max="19" width="29.81640625" style="24" customWidth="1"/>
-    <col min="20" max="20" width="24.54296875" style="24" customWidth="1"/>
-    <col min="21" max="21" width="19.36328125" style="24" customWidth="1"/>
-    <col min="22" max="22" width="18.36328125" style="24" customWidth="1"/>
-    <col min="23" max="23" width="44.453125" style="24" customWidth="1"/>
-    <col min="24" max="24" width="20.90625" style="24" customWidth="1"/>
-    <col min="25" max="25" width="24.54296875" style="24" customWidth="1"/>
-    <col min="26" max="26" width="46.6328125" style="24"/>
-    <col min="27" max="27" width="17.08984375" style="24" customWidth="1"/>
-    <col min="28" max="28" width="39.36328125" style="24" customWidth="1"/>
-    <col min="29" max="29" width="49.6328125" style="24" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="46.6328125" style="24"/>
+    <col min="18" max="18" width="31.21875" style="24" customWidth="1"/>
+    <col min="19" max="19" width="29.77734375" style="24" customWidth="1"/>
+    <col min="20" max="20" width="24.5546875" style="24" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" style="24" customWidth="1"/>
+    <col min="22" max="22" width="18.33203125" style="24" customWidth="1"/>
+    <col min="23" max="23" width="44.44140625" style="24" customWidth="1"/>
+    <col min="24" max="24" width="20.88671875" style="24" customWidth="1"/>
+    <col min="25" max="25" width="24.5546875" style="24" customWidth="1"/>
+    <col min="26" max="26" width="46.6640625" style="24"/>
+    <col min="27" max="27" width="17.109375" style="24" customWidth="1"/>
+    <col min="28" max="28" width="39.33203125" style="24" customWidth="1"/>
+    <col min="29" max="29" width="49.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="46.6640625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>169</v>
       </c>
@@ -3317,18 +3356,18 @@
       <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="23"/>
+    <col min="1" max="1" width="8.77734375" style="23"/>
     <col min="2" max="9" width="18" style="23" customWidth="1"/>
-    <col min="10" max="10" width="43.6328125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="43.6640625" style="23" customWidth="1"/>
     <col min="11" max="27" width="18" style="23" customWidth="1"/>
-    <col min="28" max="28" width="36.6328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="36.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="29" max="46" width="18" style="23" customWidth="1"/>
-    <col min="47" max="16384" width="8.7265625" style="23"/>
+    <col min="47" max="16384" width="8.77734375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:34" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="23" t="s">
         <v>198</v>
       </c>
@@ -3426,7 +3465,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:34" x14ac:dyDescent="0.3">
       <c r="E2" s="23" t="s">
         <v>219</v>
       </c>
@@ -3437,7 +3476,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
       <c r="E3" s="23" t="s">
         <v>220</v>
       </c>
@@ -3461,23 +3500,23 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="22.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" style="23"/>
+    <col min="1" max="1" width="15.109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="23"/>
     <col min="4" max="4" width="14" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.7265625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" style="23" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" style="23" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="23" customWidth="1"/>
-    <col min="12" max="16384" width="22.6328125" style="23"/>
+    <col min="5" max="5" width="27.77734375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="23" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="23" customWidth="1"/>
+    <col min="12" max="16384" width="22.6640625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>208</v>
       </c>

--- a/src/test/testData/TestData.xlsx
+++ b/src/test/testData/TestData.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srdjan.tanasijevic\IdeaProjects\sCore-Automation\src\test\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927D0162-D074-41D3-A604-97409059E8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64F1F77-C814-4736-B956-2C920ABD13FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="560" firstSheet="1" activeTab="6" xr2:uid="{446C2EEA-32A6-4059-8605-697140F2B872}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="415" xr2:uid="{446C2EEA-32A6-4059-8605-697140F2B872}"/>
   </bookViews>
   <sheets>
-    <sheet name="RSLife" sheetId="4" r:id="rId1"/>
-    <sheet name="RS" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="Matrix" sheetId="3" r:id="rId4"/>
-    <sheet name="Zdravstveni upitnik" sheetId="5" r:id="rId5"/>
-    <sheet name="AML" sheetId="6" r:id="rId6"/>
-    <sheet name="AML - saradnik" sheetId="7" r:id="rId7"/>
+    <sheet name="RSLifeIO" sheetId="8" r:id="rId1"/>
+    <sheet name="RSLifeNC" sheetId="4" r:id="rId2"/>
+    <sheet name="RS" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="Matrix" sheetId="3" r:id="rId5"/>
+    <sheet name="Zdravstveni uptnik" sheetId="5" r:id="rId6"/>
+    <sheet name="AML" sheetId="6" r:id="rId7"/>
+    <sheet name="AML - saradnik" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="362">
   <si>
     <t>TC ID</t>
   </si>
@@ -821,12 +822,6 @@
     <t>AML rangovi</t>
   </si>
   <si>
-    <t>Zdravstveni uptnik</t>
-  </si>
-  <si>
-    <t>Izjava</t>
-  </si>
-  <si>
     <t>7,15 EUR</t>
   </si>
   <si>
@@ -912,6 +907,229 @@
   </si>
   <si>
     <t>AML - saradnik</t>
+  </si>
+  <si>
+    <t>ZU-sveNE</t>
+  </si>
+  <si>
+    <t>ZU-DA</t>
+  </si>
+  <si>
+    <t>nikad/povremeno</t>
+  </si>
+  <si>
+    <t>gotovo svakog dana</t>
+  </si>
+  <si>
+    <t>nikad</t>
+  </si>
+  <si>
+    <t>dnevno/kom</t>
+  </si>
+  <si>
+    <t>Zdravstveni upitnik</t>
+  </si>
+  <si>
+    <t>Tip upitnika</t>
+  </si>
+  <si>
+    <t>Vrsta uptnika</t>
+  </si>
+  <si>
+    <t>RS_LI_RK_101</t>
+  </si>
+  <si>
+    <t>1910988732125</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>25,30 EUR</t>
+  </si>
+  <si>
+    <t>Datum rođenja</t>
+  </si>
+  <si>
+    <t>Pol</t>
+  </si>
+  <si>
+    <t>1.2.1987</t>
+  </si>
+  <si>
+    <t>Muško</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>107,00 EUR</t>
+  </si>
+  <si>
+    <t>Addiko Bank a. d. Beograd</t>
+  </si>
+  <si>
+    <t>1710989732529</t>
+  </si>
+  <si>
+    <t>Korisnik za slučaj smrti</t>
+  </si>
+  <si>
+    <t>Korisnik za slučaj doživljenja</t>
+  </si>
+  <si>
+    <t>Brat</t>
+  </si>
+  <si>
+    <t>Doživljenje %</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>50,00 EUR</t>
+  </si>
+  <si>
+    <t>5.315,32</t>
+  </si>
+  <si>
+    <t>RS_LI_RI_100</t>
+  </si>
+  <si>
+    <t>Smrt %</t>
+  </si>
+  <si>
+    <t>630,31 EUR</t>
+  </si>
+  <si>
+    <t>RS_LI_FA_100</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>61000</t>
+  </si>
+  <si>
+    <t>624,05 EUR</t>
+  </si>
+  <si>
+    <t>50.000,00</t>
+  </si>
+  <si>
+    <t>20,00</t>
+  </si>
+  <si>
+    <t>200,00</t>
+  </si>
+  <si>
+    <t>500,00</t>
+  </si>
+  <si>
+    <t>61.000,00</t>
+  </si>
+  <si>
+    <t>1910988732125
+"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1001019770028</t>
+  </si>
+  <si>
+    <t>605,76</t>
+  </si>
+  <si>
+    <t>14,16</t>
+  </si>
+  <si>
+    <t>1,29</t>
+  </si>
+  <si>
+    <t>1,55</t>
+  </si>
+  <si>
+    <t>RS_LI_RK_106</t>
+  </si>
+  <si>
+    <t>1.1.1975</t>
+  </si>
+  <si>
+    <t>49,66 EUR</t>
+  </si>
+  <si>
+    <t>scoreUW</t>
+  </si>
+  <si>
+    <t>scoreUW1</t>
+  </si>
+  <si>
+    <t>2104965880051</t>
+  </si>
+  <si>
+    <t>RS_LI_SP_109</t>
+  </si>
+  <si>
+    <t>1209986770020</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>10.514,64</t>
+  </si>
+  <si>
+    <t>21.029,28</t>
+  </si>
+  <si>
+    <t>350,00 EUR</t>
+  </si>
+  <si>
+    <t>RS_LI_JO_101</t>
+  </si>
+  <si>
+    <t>1505992700244</t>
+  </si>
+  <si>
+    <t>5.229,42</t>
+  </si>
+  <si>
+    <t>1301015770027</t>
+  </si>
+  <si>
+    <t>956,04 EUR</t>
+  </si>
+  <si>
+    <t>RS_LI_DR_110</t>
+  </si>
+  <si>
+    <t>1606963350901</t>
+  </si>
+  <si>
+    <t>377,77 EUR</t>
+  </si>
+  <si>
+    <t>RS_LI_RK_104</t>
+  </si>
+  <si>
+    <t>Korisnik za slučaj teških bolesti</t>
+  </si>
+  <si>
+    <t>Bolesti %</t>
+  </si>
+  <si>
+    <t>1812986740072</t>
+  </si>
+  <si>
+    <t>1.1.2019</t>
+  </si>
+  <si>
+    <t>10.1.2019</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1308,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1161,9 +1379,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1187,6 +1402,15 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1506,17 +1730,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78786232-FFE3-4A37-9885-B922DF461FD5}">
-  <dimension ref="A1:BY9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1CAE70-CEF9-4399-920F-D5CA4D5759E7}">
+  <dimension ref="A1:CH5"/>
   <sheetViews>
-    <sheetView topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BY1" sqref="BY1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="16" customWidth="1"/>
     <col min="3" max="3" width="12.1796875" style="16" customWidth="1"/>
     <col min="4" max="4" width="7.1796875" style="16" customWidth="1"/>
     <col min="5" max="5" width="13.6328125" style="16" bestFit="1" customWidth="1"/>
@@ -1527,57 +1751,66 @@
     <col min="10" max="10" width="16.453125" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.36328125" style="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="16" customWidth="1"/>
+    <col min="14" max="14" width="25.90625" style="16" customWidth="1"/>
     <col min="15" max="15" width="11.26953125" style="16" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.36328125" style="16" customWidth="1"/>
-    <col min="19" max="19" width="28.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.453125" style="18" customWidth="1"/>
-    <col min="22" max="22" width="27" style="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.08984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27" style="18" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17" style="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.453125" style="20" customWidth="1"/>
-    <col min="28" max="28" width="6.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.36328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.453125" style="20" customWidth="1"/>
-    <col min="31" max="31" width="10.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.90625" style="20" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.90625" style="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.81640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15" style="20" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.36328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.6328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.6328125" style="20" customWidth="1"/>
-    <col min="43" max="43" width="23.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23.453125" style="20" customWidth="1"/>
-    <col min="45" max="45" width="22.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="28.90625" style="20" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="27.81640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="34.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="26" style="20" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="32.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.36328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.6328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.453125" style="20" customWidth="1"/>
-    <col min="54" max="54" width="18" style="22" customWidth="1"/>
-    <col min="55" max="55" width="20.26953125" style="22" customWidth="1"/>
-    <col min="56" max="69" width="8.7265625" style="22"/>
-    <col min="70" max="70" width="8.1796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="71" max="72" width="8.7265625" style="22"/>
-    <col min="73" max="73" width="19.36328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="17.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12" style="22" customWidth="1"/>
-    <col min="76" max="16384" width="8.7265625" style="9"/>
+    <col min="17" max="17" width="10.36328125" style="16" customWidth="1"/>
+    <col min="18" max="18" width="18.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.453125" style="20" customWidth="1"/>
+    <col min="20" max="20" width="12" style="20" customWidth="1"/>
+    <col min="21" max="21" width="8.453125" style="20" customWidth="1"/>
+    <col min="22" max="22" width="6.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.453125" style="20" customWidth="1"/>
+    <col min="25" max="25" width="10.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.453125" style="20" customWidth="1"/>
+    <col min="27" max="27" width="4.90625" style="20" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.90625" style="20" customWidth="1"/>
+    <col min="29" max="29" width="11.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.6328125" style="20" customWidth="1"/>
+    <col min="31" max="31" width="13.1796875" style="20" customWidth="1"/>
+    <col min="32" max="32" width="15.6328125" style="20" customWidth="1"/>
+    <col min="33" max="33" width="11.81640625" style="20" customWidth="1"/>
+    <col min="34" max="34" width="15.08984375" style="20" customWidth="1"/>
+    <col min="35" max="35" width="10.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.6328125" style="20" customWidth="1"/>
+    <col min="37" max="37" width="16.90625" style="20" customWidth="1"/>
+    <col min="38" max="38" width="17.26953125" style="20" customWidth="1"/>
+    <col min="39" max="39" width="16.81640625" style="20" customWidth="1"/>
+    <col min="40" max="40" width="17" style="20" customWidth="1"/>
+    <col min="41" max="41" width="20.36328125" style="20" customWidth="1"/>
+    <col min="42" max="42" width="20" style="20" customWidth="1"/>
+    <col min="43" max="43" width="18.453125" style="20" customWidth="1"/>
+    <col min="44" max="44" width="18.6328125" style="20" customWidth="1"/>
+    <col min="45" max="45" width="9.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.7265625" style="20" customWidth="1"/>
+    <col min="47" max="47" width="19.90625" style="20" customWidth="1"/>
+    <col min="48" max="48" width="10.90625" style="20" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18" style="22" customWidth="1"/>
+    <col min="50" max="50" width="20.26953125" style="22" customWidth="1"/>
+    <col min="51" max="51" width="10.26953125" style="22" customWidth="1"/>
+    <col min="52" max="56" width="8.7265625" style="22"/>
+    <col min="57" max="57" width="17.453125" style="22" customWidth="1"/>
+    <col min="58" max="64" width="8.7265625" style="22"/>
+    <col min="65" max="65" width="8.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="8.7265625" style="22"/>
+    <col min="68" max="68" width="19.36328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12" style="34" customWidth="1"/>
+    <col min="71" max="71" width="10.36328125" style="16" customWidth="1"/>
+    <col min="72" max="72" width="28.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.54296875" style="18" customWidth="1"/>
+    <col min="74" max="74" width="15.81640625" style="18" customWidth="1"/>
+    <col min="75" max="75" width="27" style="18" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="7.08984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="27" style="18" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="17" style="18" bestFit="1" customWidth="1"/>
+    <col min="79" max="84" width="17" style="18" customWidth="1"/>
+    <col min="85" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:86" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1629,190 +1862,217 @@
       <c r="Q1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU1" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="AV1" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="BJ1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="BK1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="BN1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="BP1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="BR1" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS1" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="BT1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="BU1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="BV1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="BW1" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="BX1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="BY1" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="BZ1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG1" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP1" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR1" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="AX1" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="BB1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC1" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD1" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="BE1" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="BF1" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="BG1" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH1" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI1" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="BJ1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="BK1" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="BL1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="BM1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="BN1" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="BO1" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="BP1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="BQ1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="BR1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="BS1" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="BT1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="BU1" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="BV1" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="BW1" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="BX1" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="BY1" s="4" t="s">
-        <v>289</v>
+      <c r="CA1" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="CB1" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="CC1" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="CD1" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="CE1" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="CF1" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="CG1" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="CH1" s="4" t="s">
+        <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:77" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:86" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>262</v>
+        <v>356</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>69</v>
@@ -1827,7 +2087,7 @@
         <v>131</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>108</v>
@@ -1839,10 +2099,10 @@
         <v>73</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>75</v>
@@ -1862,263 +2122,930 @@
       <c r="Q2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR2" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="BS2" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="BT2" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="BU2" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="BV2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW2" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="BX2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CA2" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="CB2" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="CC2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CG2" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="CH2" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:86" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI3" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ3" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK3" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO3" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW3" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="AX3" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="AY3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD3" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="BE3" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="BF3" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="BG3" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="BH3" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="BI3" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="BJ3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL3" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="BM3" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="BN3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR3" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="BS3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU3" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="BV3" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="BW3" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="BX3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CA3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CG3" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="CH3" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:86" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU4" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="AV4" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="AW4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR4" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="BS4" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="BT4" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="BU4" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="BV4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW4" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="BX4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CA4" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="CB4" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="CC4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CG4" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="U2" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="V2" s="18" t="s">
+      <c r="CH4" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:86" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="X5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG5" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="W2" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y2" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z2" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AH5" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="AB2" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC2" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AY2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AZ2" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="BA2" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BC2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BD2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BE2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BG2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BJ2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BK2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BL2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BM2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BN2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BO2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BP2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BQ2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BR2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BS2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BT2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BU2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BV2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BW2" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="BX2" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="BY2" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:77" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:77" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:77" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:77" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:77" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:77" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:77" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="AI5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR5" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="BS5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU5" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="BV5" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="BW5" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="BX5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CA5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="CG5" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="CH5" s="9" t="s">
+        <v>274</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2128,6 +3055,2143 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78786232-FFE3-4A37-9885-B922DF461FD5}">
+  <dimension ref="A1:CG8"/>
+  <sheetViews>
+    <sheetView topLeftCell="BI1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BP1" sqref="BP1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="16" customWidth="1"/>
+    <col min="14" max="14" width="25.90625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="11.26953125" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.36328125" style="16" customWidth="1"/>
+    <col min="19" max="19" width="28.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.54296875" style="18" customWidth="1"/>
+    <col min="21" max="21" width="15.81640625" style="18" customWidth="1"/>
+    <col min="22" max="22" width="27" style="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.08984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27" style="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="17" style="18" customWidth="1"/>
+    <col min="31" max="31" width="18.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.453125" style="20" customWidth="1"/>
+    <col min="33" max="33" width="12" style="20" customWidth="1"/>
+    <col min="34" max="34" width="8.453125" style="20" customWidth="1"/>
+    <col min="35" max="35" width="6.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.453125" style="20" customWidth="1"/>
+    <col min="38" max="38" width="10.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.453125" style="20" customWidth="1"/>
+    <col min="40" max="40" width="4.90625" style="20" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.90625" style="20" customWidth="1"/>
+    <col min="42" max="42" width="11.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.6328125" style="20" customWidth="1"/>
+    <col min="44" max="44" width="13.1796875" style="20" customWidth="1"/>
+    <col min="45" max="45" width="15.6328125" style="20" customWidth="1"/>
+    <col min="46" max="46" width="11.81640625" style="20" customWidth="1"/>
+    <col min="47" max="47" width="15.08984375" style="20" customWidth="1"/>
+    <col min="48" max="48" width="10.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.6328125" style="20" customWidth="1"/>
+    <col min="50" max="50" width="16.90625" style="20" customWidth="1"/>
+    <col min="51" max="51" width="17.26953125" style="20" customWidth="1"/>
+    <col min="52" max="52" width="16.81640625" style="20" customWidth="1"/>
+    <col min="53" max="53" width="17" style="20" customWidth="1"/>
+    <col min="54" max="54" width="20.36328125" style="20" customWidth="1"/>
+    <col min="55" max="55" width="20" style="20" customWidth="1"/>
+    <col min="56" max="56" width="18.453125" style="20" customWidth="1"/>
+    <col min="57" max="57" width="18.6328125" style="20" customWidth="1"/>
+    <col min="58" max="58" width="9.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.7265625" style="20" customWidth="1"/>
+    <col min="60" max="60" width="19.90625" style="20" customWidth="1"/>
+    <col min="61" max="61" width="10.90625" style="20" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18" style="22" customWidth="1"/>
+    <col min="63" max="63" width="20.26953125" style="22" customWidth="1"/>
+    <col min="64" max="64" width="10.26953125" style="22" customWidth="1"/>
+    <col min="65" max="69" width="8.7265625" style="22"/>
+    <col min="70" max="70" width="17.453125" style="22" customWidth="1"/>
+    <col min="71" max="77" width="8.7265625" style="22"/>
+    <col min="78" max="78" width="8.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="8.7265625" style="22"/>
+    <col min="81" max="81" width="19.36328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="17.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12" style="34" customWidth="1"/>
+    <col min="84" max="16384" width="8.7265625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:85" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH1" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="AI1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH1" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="BI1" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="BN1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="BR1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="BT1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="BU1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="BV1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="BW1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="BX1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="BY1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="BZ1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="CA1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="CB1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="CC1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="CD1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="CE1" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="CG1" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:85" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF2" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI2" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ2" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="AK2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="AL2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH2" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="BI2" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="BJ2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CA2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE2" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="CF2" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="CG2" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:85" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF3" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI3" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ3" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK3" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH3" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="BI3" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="BJ3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CA3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE3" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="CF3" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="CG3" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:85" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC4" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE4" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF4" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI4" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ4" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT4" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="AU4" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="AV4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ4" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="BK4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CA4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE4" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="CF4" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="CG4" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:85" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="X5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA5" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE5" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF5" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI5" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ5" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="AK5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH5" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="BI5" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="BJ5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CA5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE5" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="CF5" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="CG5" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:85" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="W6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA6" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB6" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC6" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE6" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF6" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="AG6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI6" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ6" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH6" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="BI6" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="BJ6" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="BK6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL6" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="BM6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CA6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE6" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="CF6" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="CG6" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:85" ht="31" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="V7" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="W7" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z7" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA7" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB7" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC7" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD7" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF7" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI7" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ7" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT7" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="AU7" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="AV7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ7" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="BK7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CA7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE7" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="CF7" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="CG7" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:85" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="V8" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="W8" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y8" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z8" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA8" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB8" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC8" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD8" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE8" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF8" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BU8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CA8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE8" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="CF8" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="CG8" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A231167-7B41-45C2-955B-DBFB6AABD467}">
   <dimension ref="A1:P15"/>
   <sheetViews>
@@ -2913,7 +5977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E587EA97-BF0A-429B-994C-82B572CD570D}">
   <dimension ref="B1:AW1"/>
   <sheetViews>
@@ -2924,68 +5988,68 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:49" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="33"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
       <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33" t="s">
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
       <c r="AW1" s="1" t="s">
         <v>51</v>
       </c>
@@ -3002,7 +6066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2F5DD6-A131-4141-8EB1-B0B84D0D7A59}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
@@ -3324,1358 +6388,1544 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CE8073-1DD4-47EB-9A38-015F3774ABB1}">
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="17" style="24" customWidth="1"/>
-    <col min="7" max="7" width="24.08984375" style="24" customWidth="1"/>
-    <col min="8" max="8" width="31.6328125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="46.36328125" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.90625" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.1796875" style="24" customWidth="1"/>
-    <col min="12" max="12" width="28.36328125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="24.453125" style="24" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" style="24" customWidth="1"/>
-    <col min="15" max="15" width="23.90625" style="24" customWidth="1"/>
-    <col min="16" max="16" width="25.453125" style="24" customWidth="1"/>
-    <col min="17" max="17" width="26" style="24" customWidth="1"/>
-    <col min="18" max="18" width="31.1796875" style="24" customWidth="1"/>
-    <col min="19" max="19" width="29.81640625" style="24" customWidth="1"/>
-    <col min="20" max="20" width="24.54296875" style="24" customWidth="1"/>
-    <col min="21" max="21" width="19.36328125" style="24" customWidth="1"/>
-    <col min="22" max="22" width="18.36328125" style="24" customWidth="1"/>
-    <col min="23" max="23" width="44.453125" style="24" customWidth="1"/>
-    <col min="24" max="24" width="20.90625" style="24" customWidth="1"/>
-    <col min="25" max="25" width="24.54296875" style="24" customWidth="1"/>
-    <col min="26" max="26" width="46.6328125" style="24"/>
-    <col min="27" max="27" width="17.08984375" style="24" customWidth="1"/>
-    <col min="28" max="28" width="39.36328125" style="24" customWidth="1"/>
-    <col min="29" max="29" width="49.6328125" style="24" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="46.6328125" style="24"/>
+    <col min="1" max="1" width="13.54296875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" style="32" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="17" style="32" customWidth="1"/>
+    <col min="8" max="8" width="24.08984375" style="32" customWidth="1"/>
+    <col min="9" max="9" width="31.6328125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="46.36328125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.90625" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.1796875" style="32" customWidth="1"/>
+    <col min="13" max="13" width="28.36328125" style="32" customWidth="1"/>
+    <col min="14" max="14" width="24.453125" style="32" customWidth="1"/>
+    <col min="15" max="15" width="21.08984375" style="32" customWidth="1"/>
+    <col min="16" max="16" width="23.90625" style="32" customWidth="1"/>
+    <col min="17" max="17" width="25.453125" style="32" customWidth="1"/>
+    <col min="18" max="18" width="26" style="32" customWidth="1"/>
+    <col min="19" max="19" width="31.1796875" style="32" customWidth="1"/>
+    <col min="20" max="20" width="29.81640625" style="32" customWidth="1"/>
+    <col min="21" max="21" width="24.54296875" style="32" customWidth="1"/>
+    <col min="22" max="22" width="19.36328125" style="32" customWidth="1"/>
+    <col min="23" max="23" width="18.36328125" style="32" customWidth="1"/>
+    <col min="24" max="24" width="44.453125" style="32" customWidth="1"/>
+    <col min="25" max="25" width="20.90625" style="32" customWidth="1"/>
+    <col min="26" max="26" width="24.54296875" style="32" customWidth="1"/>
+    <col min="27" max="27" width="46.6328125" style="32"/>
+    <col min="28" max="28" width="17.08984375" style="32" customWidth="1"/>
+    <col min="29" max="29" width="39.36328125" style="32" customWidth="1"/>
+    <col min="30" max="30" width="49.6328125" style="32" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="46.6328125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="R1" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="S1" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="T1" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="U1" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="V1" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="W1" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="X1" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="Y1" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Z1" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="AA1" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AB1" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AC1" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AD1" s="32" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="T2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="U2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="W2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="X2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC2" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD2" s="32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="R3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="T3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="U3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="V3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="W3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="X3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD3" s="32" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC0C6BA-7019-4DDD-99C2-5B9398F19638}">
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="26" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="25" customWidth="1"/>
     <col min="2" max="3" width="18" style="5" customWidth="1"/>
     <col min="4" max="4" width="17.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="18" style="26" customWidth="1"/>
-    <col min="10" max="10" width="43.6328125" style="26" customWidth="1"/>
-    <col min="11" max="27" width="18" style="26" customWidth="1"/>
-    <col min="28" max="28" width="36.6328125" style="26" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="18" style="26" customWidth="1"/>
+    <col min="5" max="9" width="18" style="25" customWidth="1"/>
+    <col min="10" max="10" width="43.6328125" style="25" customWidth="1"/>
+    <col min="11" max="27" width="18" style="25" customWidth="1"/>
+    <col min="28" max="28" width="36.6328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="18" style="25" customWidth="1"/>
     <col min="32" max="32" width="18" style="5" customWidth="1"/>
-    <col min="33" max="33" width="18" style="26" customWidth="1"/>
-    <col min="34" max="44" width="18" style="25" customWidth="1"/>
-    <col min="45" max="16384" width="8.7265625" style="25"/>
+    <col min="33" max="33" width="18" style="25" customWidth="1"/>
+    <col min="34" max="44" width="18" style="24" customWidth="1"/>
+    <col min="45" max="16384" width="8.7265625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="4" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="X1" s="31" t="s">
+      <c r="X1" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="Y1" s="31" t="s">
+      <c r="Y1" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="Z1" s="31" t="s">
+      <c r="Z1" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="AA1" s="31" t="s">
+      <c r="AA1" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="AB1" s="31" t="s">
+      <c r="AB1" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="AC1" s="31" t="s">
+      <c r="AC1" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="AD1" s="31" t="s">
+      <c r="AD1" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="AE1" s="31" t="s">
+      <c r="AE1" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="AF1" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="AG1" s="31" t="s">
+      <c r="AG1" s="30" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="D2" s="30" t="s">
+      <c r="A2" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="H2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="29" t="s">
+      <c r="H2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="J2" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="K2" s="29" t="s">
+      <c r="J2" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="K2" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="L2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="T2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="U2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="V2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="W2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="X2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF2" s="30" t="s">
+      <c r="L2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="U2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE2" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF2" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="AG2" s="29" t="s">
+      <c r="AG2" s="28" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="J3" s="29" t="s">
+      <c r="H3" s="28"/>
+      <c r="I3" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="J3" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="K3" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="R3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="T3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="V3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="W3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="X3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE3" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF3" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG3" s="29" t="s">
-        <v>274</v>
+      <c r="K3" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="X3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF3" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="AG3" s="28" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4" s="30" t="s">
+      <c r="A4" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="G4" s="29" t="s">
+      <c r="F4" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29" t="s">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="J4" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="K4" s="29" t="s">
+      <c r="J4" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="K4" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="L4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="P4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="R4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="S4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="T4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="U4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="V4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="W4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="X4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF4" s="30" t="s">
+      <c r="L4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="U4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="W4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="X4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF4" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="AG4" s="29" t="s">
+      <c r="AG4" s="28" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="E5" s="29" t="s">
+      <c r="A5" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="J5" s="29" t="s">
+      <c r="H5" s="28"/>
+      <c r="I5" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="J5" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="K5" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="P5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="R5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="T5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="U5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="V5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="W5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="X5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF5" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG5" s="29" t="s">
-        <v>274</v>
+      <c r="K5" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="X5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF5" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="AG5" s="28" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="A6" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29" t="s">
+      <c r="H6" s="28"/>
+      <c r="I6" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="J6" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="K6" s="29" t="s">
+      <c r="J6" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="K6" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="L6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="R6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="S6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="T6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="U6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="V6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="W6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="X6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF6" s="30" t="s">
+      <c r="L6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="T6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="U6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="V6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="W6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF6" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="AG6" s="29" t="s">
+      <c r="AG6" s="28" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="29"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="28"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="29"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="28"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="29"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="28"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="29"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="28"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="29"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="28"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="29"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="28"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="29"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="28"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="29"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="28"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="29"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="28"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="29"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="28"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="29"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="28"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="29"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="28"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="29"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="28"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="29"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="28"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="29"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="28"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="29"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="28"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="29"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4684,298 +7934,298 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3478E0C7-5B2C-4C21-9F9E-5E498D4C7A77}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" style="27"/>
-    <col min="2" max="2" width="15.08984375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="30.1796875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" style="28"/>
-    <col min="5" max="5" width="14" style="28" customWidth="1"/>
-    <col min="6" max="6" width="27.7265625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="17.7265625" style="27" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" style="27" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" style="27" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" style="27" customWidth="1"/>
-    <col min="13" max="13" width="11.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6328125" style="26"/>
+    <col min="2" max="2" width="15.08984375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" style="27"/>
+    <col min="5" max="5" width="14" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.7265625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="17.7265625" style="26" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" style="26" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" style="26" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="26" customWidth="1"/>
+    <col min="13" max="13" width="11.1796875" style="25" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="22.6328125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="25" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" s="28" t="s">
+      <c r="A3" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="25" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" s="28" t="s">
+      <c r="A4" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="F4" s="28" t="s">
+      <c r="E4" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="25" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="G5" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="H5" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="I5" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J5" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="I5" s="27" t="s">
+      <c r="K5" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="J5" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="K5" s="27" t="s">
+      <c r="L5" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="L5" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="25" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="28" t="s">
+      <c r="A6" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="H6" s="27" t="s">
+      <c r="G6" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="H6" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="25" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="26"/>
+      <c r="A7" s="25"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
+      <c r="A8" s="25"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
+      <c r="A9" s="25"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="26"/>
+      <c r="A10" s="25"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="26"/>
+      <c r="A11" s="25"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
+      <c r="A12" s="25"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
+      <c r="A13" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
